--- a/input_spreadsheets/Bangladesh/2016Sept12/validation/Input_Bangladesh_2016_LiST.xlsx
+++ b/input_spreadsheets/Bangladesh/2016Sept12/validation/Input_Bangladesh_2016_LiST.xlsx
@@ -9,27 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12080" yWindow="-21140" windowWidth="19620" windowHeight="20500" tabRatio="500" firstSheet="21" activeTab="24"/>
+    <workbookView xWindow="12080" yWindow="-21140" windowWidth="19620" windowHeight="20500" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
     <sheet name="projected births" sheetId="2" r:id="rId2"/>
-    <sheet name="total mortality" sheetId="3" r:id="rId3"/>
-    <sheet name="mortality" sheetId="4" r:id="rId4"/>
+    <sheet name="mortality rates" sheetId="3" r:id="rId3"/>
+    <sheet name="causes of death" sheetId="4" r:id="rId4"/>
     <sheet name="distributions" sheetId="5" r:id="rId5"/>
     <sheet name="birth outcome distribution" sheetId="6" r:id="rId6"/>
     <sheet name="Incidence of conditions" sheetId="7" r:id="rId7"/>
-    <sheet name="RRStunting" sheetId="8" r:id="rId8"/>
-    <sheet name="RRWasting" sheetId="9" r:id="rId9"/>
-    <sheet name="RRBreastfeeding" sheetId="10" r:id="rId10"/>
-    <sheet name="RR Death by Birth Outcome" sheetId="11" r:id="rId11"/>
+    <sheet name="RR death by stunting" sheetId="8" r:id="rId8"/>
+    <sheet name="RR death by wasting" sheetId="9" r:id="rId9"/>
+    <sheet name="RR death by breastfeeding" sheetId="10" r:id="rId10"/>
+    <sheet name="RR death by birth outcome" sheetId="11" r:id="rId11"/>
     <sheet name="OR stunting progression" sheetId="12" r:id="rId12"/>
     <sheet name="RR diarrhoea" sheetId="13" r:id="rId13"/>
     <sheet name="OR stunting by condition" sheetId="14" r:id="rId14"/>
     <sheet name="OR stunting by birth outcome" sheetId="15" r:id="rId15"/>
     <sheet name="OR stunting by intervention" sheetId="16" r:id="rId16"/>
     <sheet name="OR stunting for complements" sheetId="17" r:id="rId17"/>
-    <sheet name="OR appropriateBF by interv" sheetId="18" r:id="rId18"/>
+    <sheet name="OR correctBF by interventn" sheetId="18" r:id="rId18"/>
     <sheet name="Appropriate breastfeeding" sheetId="19" r:id="rId19"/>
     <sheet name="Interventions cost and coverage" sheetId="20" r:id="rId20"/>
     <sheet name="Interventions target population" sheetId="21" r:id="rId21"/>
@@ -347,9 +347,6 @@
     <t>Intervention</t>
   </si>
   <si>
-    <t>Complements group</t>
-  </si>
-  <si>
     <t>Complementary feeding (food secure with promotion)</t>
   </si>
   <si>
@@ -414,6 +411,9 @@
   </si>
   <si>
     <t>Balanced energy-protein supplementation</t>
+  </si>
+  <si>
+    <t>Food security &amp; education</t>
   </si>
 </sst>
 </file>
@@ -864,6 +864,57 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1175,6 +1226,57 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 1" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1184,22 +1286,22 @@
     <sheetNames>
       <sheetName val="demographics"/>
       <sheetName val="projected births"/>
-      <sheetName val="total mortality"/>
-      <sheetName val="mortality"/>
+      <sheetName val="mortality rates"/>
+      <sheetName val="causes of death"/>
       <sheetName val="distributions"/>
       <sheetName val="birth outcome distribution"/>
       <sheetName val="Incidence of conditions"/>
-      <sheetName val="RRStunting"/>
-      <sheetName val="RRWasting"/>
-      <sheetName val="RRBreastfeeding"/>
-      <sheetName val="RR Death by Birth Outcome"/>
+      <sheetName val="RR deaths by stunting"/>
+      <sheetName val="RR death by wasting"/>
+      <sheetName val="RR death by breastfeeding"/>
+      <sheetName val="RR death by birth outcome"/>
       <sheetName val="OR stunting progression"/>
       <sheetName val="RR diarrhoea"/>
       <sheetName val="OR stunting by condition"/>
       <sheetName val="OR stunting by birth outcome"/>
       <sheetName val="OR stunting by intervention"/>
-      <sheetName val="OR stunting for complements"/>
-      <sheetName val="OR appropriateBF by interv"/>
+      <sheetName val="OR stunting by compfeeding"/>
+      <sheetName val="OR correctBF by interventn"/>
       <sheetName val="Appropriate breastfeeding"/>
       <sheetName val="Interventions cost and coverage"/>
       <sheetName val="Interventions target population"/>
@@ -1559,7 +1661,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="22">
         <v>1</v>
@@ -1567,7 +1669,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="19">
         <v>0.4365</v>
@@ -1575,7 +1677,7 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="19">
         <v>0</v>
@@ -2803,7 +2905,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -2863,7 +2965,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -2883,7 +2985,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -2903,7 +3005,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -2923,7 +3025,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -2943,7 +3045,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -3002,7 +3104,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="7">
         <v>5.16</v>
@@ -3263,18 +3365,18 @@
         <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="16">
         <v>0</v>
@@ -3291,7 +3393,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2">
         <v>0.97</v>
@@ -3308,7 +3410,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="2">
         <v>0.20899999999999999</v>
@@ -3325,7 +3427,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2">
         <v>0.20899999999999999</v>
@@ -3342,7 +3444,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2">
         <v>0.61</v>
@@ -3359,7 +3461,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -3376,7 +3478,7 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -3531,14 +3633,14 @@
         <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
@@ -3561,7 +3663,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -3584,7 +3686,7 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
@@ -3607,7 +3709,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -3632,7 +3734,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
@@ -3655,7 +3757,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
@@ -3679,7 +3781,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -3820,7 +3922,7 @@
         <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
         <v>46</v>
@@ -3837,10 +3939,10 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="18">
         <v>0.21</v>
@@ -3857,7 +3959,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="18">
         <f>[1]demographics!$B$5 * '[1]Interventions target population'!$G$7</f>
@@ -3876,10 +3978,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="18">
         <v>0.1</v>
@@ -3896,7 +3998,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="18">
         <v>1</v>
@@ -3931,7 +4033,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -3954,7 +4056,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -3998,7 +4100,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
@@ -4080,7 +4182,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -4103,7 +4205,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -4147,7 +4249,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
@@ -4218,7 +4320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
@@ -4229,7 +4331,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -4252,7 +4354,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -4296,7 +4398,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
@@ -4367,7 +4469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
